--- a/tutorial_02/Database.xlsx
+++ b/tutorial_02/Database.xlsx
@@ -355,10 +355,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -377,14 +377,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/tutorial_02/Database.xlsx
+++ b/tutorial_02/Database.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Developer/iitp_chatbot/exobrain_chatbot/tutorial_02/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12420" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12180" windowHeight="8460"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>사용자키</t>
   </si>
@@ -28,34 +41,34 @@
     <t>Xd-FnJwm2rSA</t>
   </si>
   <si>
-    <t>이강훈</t>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,20 +84,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="기본" xfId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,23 +369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="14"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,20 +392,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3"/>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>